--- a/template.xlsx
+++ b/template.xlsx
@@ -15,12 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Jumlah</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>2021-01-2</t>
+  </si>
+  <si>
+    <t>2021-01-3</t>
+  </si>
+  <si>
+    <t>2021-01-4</t>
+  </si>
+  <si>
+    <t>2021-01-5</t>
+  </si>
+  <si>
+    <t>2021-01-6</t>
+  </si>
+  <si>
+    <t>2021-01-7</t>
+  </si>
+  <si>
+    <t>2021-01-8</t>
+  </si>
+  <si>
+    <t>2021-01-9</t>
+  </si>
+  <si>
+    <t>2021-01-10</t>
   </si>
 </sst>
 </file>
@@ -360,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,6 +403,78 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
